--- a/Crawling/crawling_data/day_genie/day_genie_20220101.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220101.xlsx
@@ -193,8 +193,7 @@
     <t>이루리</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>롤린 (Rollin')</t>
